--- a/src/test/java/tonto/test/excel/read/test2user.xlsx
+++ b/src/test/java/tonto/test/excel/read/test2user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="22455" windowHeight="9585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21195" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,14 @@
   </si>
   <si>
     <t>玉山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -415,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -437,11 +446,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>32</v>
       </c>
       <c r="C2" t="s">
@@ -451,35 +460,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
